--- a/data/case1/15/Q1_13.xlsx
+++ b/data/case1/15/Q1_13.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.11794826612148057</v>
+        <v>0.12818632190988666</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999854447594</v>
+        <v>-0.0059999999887025979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999882915915</v>
+        <v>-0.0039999999908015837</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999780060449</v>
+        <v>-0.0079999999827400359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999892718066</v>
+        <v>-0.0029999999910765851</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999901276766</v>
+        <v>-0.0019999999910229604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999709807774</v>
+        <v>-0.0099999999761464231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999709603493</v>
+        <v>-0.0099999999755810975</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999903443921</v>
+        <v>-0.0019999999896285203</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.001999999990736967</v>
+        <v>-0.001999999989154233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999884280371</v>
+        <v>0.0032038245706713653</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.03697646474160754</v>
+        <v>-0.0034999999862481701</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999860643172</v>
+        <v>-0.0034999999857125985</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999749684747</v>
+        <v>-0.0079999999773514574</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999999144717577</v>
+        <v>0.0097805020665635567</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999888442588</v>
+        <v>-0.001999999988138601</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999885378372</v>
+        <v>-0.001999999987854828</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999836686229</v>
+        <v>-0.0039999999841100475</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999901199068</v>
+        <v>-0.0039999999923572283</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.005853493622099748</v>
+        <v>-0.0039999999917625928</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999898263638</v>
+        <v>-0.0039999999916924267</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.003999999989747316</v>
+        <v>-0.003999999991604497</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999851717547</v>
+        <v>0.012062290698499289</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999948066893</v>
+        <v>-0.019999999960004899</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999947412306</v>
+        <v>-0.019999999959466663</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999887267421</v>
+        <v>-0.00249999999000039</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999884509627</v>
+        <v>-0.0024999999898067671</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999885698116</v>
+        <v>-0.0019999999900308651</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999758962872</v>
+        <v>-0.0069999999804570834</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.055165640196961352</v>
+        <v>-0.059999999883465271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999772036858</v>
+        <v>-0.0069999999821046544</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.009999999970640161</v>
+        <v>0.063732523984885603</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.05767734634055266</v>
+        <v>-0.0039999999880784287</v>
       </c>
     </row>
   </sheetData>
